--- a/materials/experiments/arrowFlanker_with_chicago_background_half/error_commBlock_select_B.xlsx
+++ b/materials/experiments/arrowFlanker_with_chicago_background_half/error_commBlock_select_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Desktop\Github_repos\memory-for-error-dataset\materials\experiments\arrowFlanker_with_chicago_background_half\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC37DC-99D1-45E8-A874-5146D70ACEF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF024387-9B6A-4D8A-9AFC-C01100977F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1395" yWindow="7500" windowWidth="25575" windowHeight="7980" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
@@ -51,27 +51,27 @@
     <t>a_halfV_surpriseTable1.csv</t>
   </si>
   <si>
-    <t>In this round, press the left key when you think you have made an error around this face and press the right key when you think you have not made an error around this face.
+    <t>error_commKey</t>
+  </si>
+  <si>
+    <t>No error - Right Key</t>
+  </si>
+  <si>
+    <t>Error - Right Key</t>
+  </si>
+  <si>
+    <t>Error - Left Key</t>
+  </si>
+  <si>
+    <t>No error - Left Key</t>
+  </si>
+  <si>
+    <t>In this round, press the right key when you think you have made an error around this face during the arrow game and press the left key when you think you have not made an error around this face during the arrow game.
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
   </si>
   <si>
-    <t>In this round, press the right key when you think you have made an error around this face and press the left key when you think you have not made an error around this face.
+    <t>In this round, press the left key when you think you have made an error around this face during the arrow game and press the right key when you think you have not made an error around this face during the arrow game.
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
-  </si>
-  <si>
-    <t>error_commKey</t>
-  </si>
-  <si>
-    <t>No error - Right Key</t>
-  </si>
-  <si>
-    <t>Error - Right Key</t>
-  </si>
-  <si>
-    <t>Error - Left Key</t>
-  </si>
-  <si>
-    <t>No error - Left Key</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86DD6-21E5-C74C-9F7E-9BC5FB3C43C9}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -462,16 +462,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -479,16 +479,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/materials/experiments/arrowFlanker_with_chicago_background_half/error_commBlock_select_B.xlsx
+++ b/materials/experiments/arrowFlanker_with_chicago_background_half/error_commBlock_select_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Desktop\Github_repos\memory-for-error-dataset\materials\experiments\arrowFlanker_with_chicago_background_half\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Documents\GitHub\memory-for-error-dataset\materials\experiments\arrowFlanker_with_chicago_background_half\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF024387-9B6A-4D8A-9AFC-C01100977F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290503E5-2E7A-47E6-9723-44748EA014C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="7500" windowWidth="25575" windowHeight="7980" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>left</t>
   </si>
   <si>
-    <t>a_halfV_surpriseTable2.csv</t>
-  </si>
-  <si>
-    <t>a_halfV_surpriseTable1.csv</t>
-  </si>
-  <si>
     <t>error_commKey</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   <si>
     <t>In this round, press the left key when you think you have made an error around this face during the arrow game and press the right key when you think you have not made an error around this face during the arrow game.
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
+  </si>
+  <si>
+    <t>a_halfV_friendlyTable2.csv</t>
+  </si>
+  <si>
+    <t>a_halfV_friendlyTable1.csv</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86DD6-21E5-C74C-9F7E-9BC5FB3C43C9}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -459,36 +459,36 @@
     </row>
     <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
